--- a/2023/(A) 7.xlsx
+++ b/2023/(A) 7.xlsx
@@ -407,6 +407,8 @@
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
     <col customWidth="1" min="2" max="2" width="18.25"/>
+    <col customWidth="1" min="6" max="6" width="14.0"/>
+    <col customWidth="1" min="11" max="11" width="14.63"/>
   </cols>
   <sheetData>
     <row r="1">
